--- a/src/main/webapp/WEB-INF/download/goodsInfo.xlsx
+++ b/src/main/webapp/WEB-INF/download/goodsInfo.xlsx
@@ -14,21 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>货物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货物类型</t>
+    <t>货物颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货物规格</t>
+    <t>货物编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货物价值</t>
+    <t>货物尺码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -36,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +50,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -72,14 +85,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,26 +420,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="4" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
